--- a/tests/Payroll/repository/truth-table.xlsx
+++ b/tests/Payroll/repository/truth-table.xlsx
@@ -5,12 +5,11 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView activeTab="0" firstSheet="0" showHorizontalScroll="true" showSheetTabs="true" showVerticalScroll="true" tabRatio="205" windowHeight="8192" windowWidth="16384" xWindow="0" yWindow="0"/>
+    <workbookView activeTab="1" firstSheet="0" showHorizontalScroll="true" showSheetTabs="true" showVerticalScroll="true" tabRatio="194" windowHeight="8192" windowWidth="16384" xWindow="0" yWindow="0"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId2"/>
     <sheet name="Sheet2" sheetId="2" state="visible" r:id="rId3"/>
-    <sheet name="Sheet3" sheetId="3" state="visible" r:id="rId4"/>
   </sheets>
   <calcPr iterateCount="100" refMode="A1" iterate="false" iterateDelta="0.001"/>
 </workbook>
@@ -35,6 +34,7 @@
   <fonts count="4">
     <font>
       <name val="Arial"/>
+      <charset val="1"/>
       <family val="2"/>
       <sz val="10"/>
     </font>
@@ -120,17 +120,17 @@
   </sheetPr>
   <dimension ref="A1:B5"/>
   <sheetViews>
-    <sheetView colorId="64" defaultGridColor="true" rightToLeft="false" showFormulas="false" showGridLines="true" showOutlineSymbols="true" showRowColHeaders="true" showZeros="true" tabSelected="true" topLeftCell="A1" view="normal" windowProtection="false" workbookViewId="0" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100">
+    <sheetView colorId="64" defaultGridColor="true" rightToLeft="false" showFormulas="false" showGridLines="true" showOutlineSymbols="true" showRowColHeaders="true" showZeros="true" tabSelected="false" topLeftCell="A1" view="normal" windowProtection="false" workbookViewId="0" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100">
       <selection activeCell="A1" activeCellId="0" pane="topLeft" sqref="A1"/>
     </sheetView>
   </sheetViews>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="1" width="16.1882352941176"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="1" width="11.5764705882353"/>
-    <col collapsed="false" hidden="false" max="1025" min="3" style="0" width="11.5764705882353"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="1" width="16.2705882352941"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="1" width="11.6313725490196"/>
+    <col collapsed="false" hidden="false" max="1025" min="3" style="0" width="11.6313725490196"/>
   </cols>
   <sheetData>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="1">
+    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="12.1" outlineLevel="0" r="1">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -138,7 +138,7 @@
         <v>1</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="2">
+    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="12.1" outlineLevel="0" r="2">
       <c r="A2" s="1" t="n">
         <v>0</v>
       </c>
@@ -146,7 +146,7 @@
         <v>0</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="3">
+    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="12.1" outlineLevel="0" r="3">
       <c r="A3" s="1" t="n">
         <v>0</v>
       </c>
@@ -154,7 +154,7 @@
         <v>1</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="4">
+    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="12.1" outlineLevel="0" r="4">
       <c r="A4" s="1" t="n">
         <v>1</v>
       </c>
@@ -162,7 +162,7 @@
         <v>0</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="5">
+    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="12.1" outlineLevel="0" r="5">
       <c r="A5" s="1" t="n">
         <v>1</v>
       </c>
@@ -186,44 +186,52 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1"/>
+  <dimension ref="A1:B4"/>
   <sheetViews>
-    <sheetView colorId="64" defaultGridColor="true" rightToLeft="false" showFormulas="false" showGridLines="true" showOutlineSymbols="true" showRowColHeaders="true" showZeros="true" tabSelected="false" topLeftCell="A1" view="normal" windowProtection="false" workbookViewId="0" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="60">
-      <selection activeCell="A1" activeCellId="0" pane="topLeft" sqref="A1"/>
+    <sheetView colorId="64" defaultGridColor="true" rightToLeft="false" showFormulas="false" showGridLines="true" showOutlineSymbols="true" showRowColHeaders="true" showZeros="true" tabSelected="true" topLeftCell="A1" view="normal" windowProtection="false" workbookViewId="0" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100">
+      <selection activeCell="B4" activeCellId="0" pane="topLeft" sqref="B4"/>
     </sheetView>
   </sheetViews>
   <cols>
-    <col collapsed="false" hidden="false" max="1025" min="1" style="0" width="11.5764705882353"/>
+    <col collapsed="false" hidden="false" max="1025" min="1" style="0" width="11.6313725490196"/>
   </cols>
-  <sheetData/>
+  <sheetData>
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="1">
+      <c r="A1" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="B1" s="0" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="2">
+      <c r="A2" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" s="0" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="3">
+      <c r="A3" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" s="0" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="4">
+      <c r="A4" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="B4" s="0" t="n">
+        <v>1</v>
+      </c>
+    </row>
+  </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
-  <pageSetup blackAndWhite="false" cellComments="none" copies="1" draft="false" firstPageNumber="1" fitToHeight="1" fitToWidth="1" horizontalDpi="300" orientation="portrait" pageOrder="downThenOver" paperSize="1" scale="100" useFirstPageNumber="false" usePrinterDefaults="false" verticalDpi="300"/>
-  <headerFooter differentFirst="false" differentOddEven="false">
-    <oddHeader>&amp;C&amp;"Times New Roman,Regular"&amp;12&amp;A</oddHeader>
-    <oddFooter>&amp;C&amp;"Times New Roman,Regular"&amp;12Page &amp;P</oddFooter>
-  </headerFooter>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <sheetPr filterMode="false">
-    <pageSetUpPr fitToPage="false"/>
-  </sheetPr>
-  <dimension ref="A1"/>
-  <sheetViews>
-    <sheetView colorId="64" defaultGridColor="true" rightToLeft="false" showFormulas="false" showGridLines="true" showOutlineSymbols="true" showRowColHeaders="true" showZeros="true" tabSelected="false" topLeftCell="A1" view="normal" windowProtection="false" workbookViewId="0" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="60">
-      <selection activeCell="A1" activeCellId="0" pane="topLeft" sqref="A1"/>
-    </sheetView>
-  </sheetViews>
-  <cols>
-    <col collapsed="false" hidden="false" max="1025" min="1" style="0" width="11.5764705882353"/>
-  </cols>
-  <sheetData/>
-  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
-  <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
-  <pageSetup blackAndWhite="false" cellComments="none" copies="1" draft="false" firstPageNumber="1" fitToHeight="1" fitToWidth="1" horizontalDpi="300" orientation="portrait" pageOrder="downThenOver" paperSize="1" scale="100" useFirstPageNumber="false" usePrinterDefaults="false" verticalDpi="300"/>
+  <pageSetup blackAndWhite="false" cellComments="none" copies="1" draft="false" firstPageNumber="0" fitToHeight="1" fitToWidth="1" horizontalDpi="300" orientation="portrait" pageOrder="downThenOver" paperSize="1" scale="100" useFirstPageNumber="false" usePrinterDefaults="false" verticalDpi="300"/>
   <headerFooter differentFirst="false" differentOddEven="false">
     <oddHeader>&amp;C&amp;"Times New Roman,Regular"&amp;12&amp;A</oddHeader>
     <oddFooter>&amp;C&amp;"Times New Roman,Regular"&amp;12Page &amp;P</oddFooter>

--- a/tests/Payroll/repository/truth-table.xlsx
+++ b/tests/Payroll/repository/truth-table.xlsx
@@ -5,23 +5,30 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView activeTab="1" firstSheet="0" showHorizontalScroll="true" showSheetTabs="true" showVerticalScroll="true" tabRatio="194" windowHeight="8192" windowWidth="16384" xWindow="0" yWindow="0"/>
+    <workbookView activeTab="0" firstSheet="0" showHorizontalScroll="true" showSheetTabs="true" showVerticalScroll="true" tabRatio="273" windowHeight="8192" windowWidth="16384" xWindow="0" yWindow="0"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId2"/>
-    <sheet name="Sheet2" sheetId="2" state="visible" r:id="rId3"/>
+    <sheet name="TruthTable" sheetId="1" state="visible" r:id="rId2"/>
+    <sheet name="TruthTableGenerated" sheetId="2" state="visible" r:id="rId3"/>
+    <sheet name="Sheet2" sheetId="3" state="visible" r:id="rId4"/>
   </sheets>
   <calcPr iterateCount="100" refMode="A1" iterate="false" iterateDelta="0.001"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2" uniqueCount="2">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8" uniqueCount="4">
   <si>
     <t>P</t>
   </si>
   <si>
     <t>Q</t>
+  </si>
+  <si>
+    <t>d</t>
+  </si>
+  <si>
+    <t>p</t>
   </si>
 </sst>
 </file>
@@ -96,9 +103,12 @@
     <xf applyAlignment="false" applyBorder="false" applyFont="true" applyProtection="false" borderId="0" fillId="0" fontId="1" numFmtId="42"/>
     <xf applyAlignment="false" applyBorder="false" applyFont="true" applyProtection="false" borderId="0" fillId="0" fontId="1" numFmtId="9"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf applyAlignment="false" applyBorder="false" applyFont="false" applyProtection="false" borderId="0" fillId="0" fontId="0" numFmtId="164" xfId="0"/>
     <xf applyAlignment="true" applyBorder="false" applyFont="false" applyProtection="false" borderId="0" fillId="0" fontId="0" numFmtId="164" xfId="0">
+      <alignment horizontal="center" indent="0" shrinkToFit="false" textRotation="0" vertical="bottom" wrapText="false"/>
+    </xf>
+    <xf applyAlignment="true" applyBorder="false" applyFont="true" applyProtection="false" borderId="0" fillId="0" fontId="0" numFmtId="164" xfId="0">
       <alignment horizontal="center" indent="0" shrinkToFit="false" textRotation="0" vertical="bottom" wrapText="false"/>
     </xf>
   </cellXfs>
@@ -120,54 +130,54 @@
   </sheetPr>
   <dimension ref="A1:B5"/>
   <sheetViews>
-    <sheetView colorId="64" defaultGridColor="true" rightToLeft="false" showFormulas="false" showGridLines="true" showOutlineSymbols="true" showRowColHeaders="true" showZeros="true" tabSelected="false" topLeftCell="A1" view="normal" windowProtection="false" workbookViewId="0" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100">
+    <sheetView colorId="64" defaultGridColor="true" rightToLeft="false" showFormulas="false" showGridLines="true" showOutlineSymbols="true" showRowColHeaders="true" showZeros="true" tabSelected="true" topLeftCell="A1" view="normal" windowProtection="false" workbookViewId="0" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100">
       <selection activeCell="A1" activeCellId="0" pane="topLeft" sqref="A1"/>
     </sheetView>
   </sheetViews>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="1" width="16.2705882352941"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="1" width="11.6313725490196"/>
-    <col collapsed="false" hidden="false" max="1025" min="3" style="0" width="11.6313725490196"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="1" width="16.5137254901961"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="1" width="11.8117647058824"/>
+    <col collapsed="false" hidden="false" max="1025" min="3" style="0" width="11.8117647058824"/>
   </cols>
   <sheetData>
     <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="12.1" outlineLevel="0" r="1">
-      <c r="A1" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="1" t="s">
+      <c r="A1" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="2" t="s">
         <v>1</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="12.1" outlineLevel="0" r="2">
-      <c r="A2" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="B2" s="1" t="n">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" s="2" t="n">
         <v>0</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="12.1" outlineLevel="0" r="3">
-      <c r="A3" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="B3" s="1" t="n">
+      <c r="A3" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B3" s="2" t="n">
         <v>1</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="12.1" outlineLevel="0" r="4">
-      <c r="A4" s="1" t="n">
-        <v>1</v>
-      </c>
-      <c r="B4" s="1" t="n">
-        <v>0</v>
+      <c r="A4" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B4" s="2" t="s">
+        <v>2</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="12.1" outlineLevel="0" r="5">
-      <c r="A5" s="1" t="n">
-        <v>1</v>
-      </c>
-      <c r="B5" s="1" t="n">
-        <v>1</v>
+      <c r="A5" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B5" s="2" t="s">
+        <v>3</v>
       </c>
     </row>
   </sheetData>
@@ -186,17 +196,85 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
+  <dimension ref="A1:B5"/>
+  <sheetViews>
+    <sheetView colorId="64" defaultGridColor="true" rightToLeft="false" showFormulas="false" showGridLines="true" showOutlineSymbols="true" showRowColHeaders="true" showZeros="true" tabSelected="false" topLeftCell="A1" view="normal" windowProtection="false" workbookViewId="0" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100">
+      <selection activeCell="A1" activeCellId="0" pane="topLeft" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <cols>
+    <col collapsed="false" hidden="false" max="1" min="1" style="1" width="16.5137254901961"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="1" width="11.8117647058824"/>
+    <col collapsed="false" hidden="false" max="1025" min="3" style="0" width="11.8117647058824"/>
+  </cols>
+  <sheetData>
+    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="12.1" outlineLevel="0" r="1">
+      <c r="A1" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="12.1" outlineLevel="0" r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" s="2" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="12.1" outlineLevel="0" r="3">
+      <c r="A3" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B3" s="2" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="12.1" outlineLevel="0" r="4">
+      <c r="A4" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B4" s="2" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="12.1" outlineLevel="0" r="5">
+      <c r="A5" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B5" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+  </sheetData>
+  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
+  <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
+  <pageSetup blackAndWhite="false" cellComments="none" copies="1" draft="false" firstPageNumber="1" fitToHeight="1" fitToWidth="1" horizontalDpi="300" orientation="portrait" pageOrder="downThenOver" paperSize="1" scale="100" useFirstPageNumber="false" usePrinterDefaults="false" verticalDpi="300"/>
+  <headerFooter differentFirst="false" differentOddEven="false">
+    <oddHeader>&amp;C&amp;"Times New Roman,Regular"&amp;12&amp;A</oddHeader>
+    <oddFooter>&amp;C&amp;"Times New Roman,Regular"&amp;12Page &amp;P</oddFooter>
+  </headerFooter>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <sheetPr filterMode="false">
+    <pageSetUpPr fitToPage="false"/>
+  </sheetPr>
   <dimension ref="A1:B4"/>
   <sheetViews>
-    <sheetView colorId="64" defaultGridColor="true" rightToLeft="false" showFormulas="false" showGridLines="true" showOutlineSymbols="true" showRowColHeaders="true" showZeros="true" tabSelected="true" topLeftCell="A1" view="normal" windowProtection="false" workbookViewId="0" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100">
+    <sheetView colorId="64" defaultGridColor="true" rightToLeft="false" showFormulas="false" showGridLines="true" showOutlineSymbols="true" showRowColHeaders="true" showZeros="true" tabSelected="false" topLeftCell="A1" view="normal" windowProtection="false" workbookViewId="0" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100">
       <selection activeCell="B4" activeCellId="0" pane="topLeft" sqref="B4"/>
     </sheetView>
   </sheetViews>
   <cols>
-    <col collapsed="false" hidden="false" max="1025" min="1" style="0" width="11.6313725490196"/>
+    <col collapsed="false" hidden="false" max="1025" min="1" style="0" width="11.8117647058824"/>
   </cols>
   <sheetData>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="1">
+    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="12.1" outlineLevel="0" r="1">
       <c r="A1" s="0" t="n">
         <v>0</v>
       </c>
@@ -204,7 +282,7 @@
         <v>0</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="2">
+    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="12.1" outlineLevel="0" r="2">
       <c r="A2" s="0" t="n">
         <v>0</v>
       </c>
@@ -212,7 +290,7 @@
         <v>1</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="3">
+    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="12.1" outlineLevel="0" r="3">
       <c r="A3" s="0" t="n">
         <v>1</v>
       </c>
@@ -220,7 +298,7 @@
         <v>0</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="4">
+    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="12.1" outlineLevel="0" r="4">
       <c r="A4" s="0" t="n">
         <v>1</v>
       </c>
